--- a/team_specific_matrix/Park (AZ)_B.xlsx
+++ b/team_specific_matrix/Park (AZ)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1286,10 +1286,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1401,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.03389830508474576</v>
       </c>
     </row>
   </sheetData>
